--- a/image/icon/contentIconLight.xlsx
+++ b/image/icon/contentIconLight.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Downloads\icons\IconLight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\HTML\ASP.Net\LIGHTEX\image\icon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66473BA-AC93-4AD7-81CD-9BEFC1B0393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9654678B-FAAD-4AF1-9675-9B5104F33E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DE7406FF-DB80-4F52-864F-79CF6ED57DD5}"/>
   </bookViews>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6748762F-50E6-4CFC-9953-DB843FC95461}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
